--- a/Assets/Resources/Data/0緣起.xlsx
+++ b/Assets/Resources/Data/0緣起.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark8\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark8\whogoopo\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
   <si>
     <t>表情差分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,10 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{EndDialouge}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +431,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -970,6 +977,9 @@
       <c r="A18" t="s">
         <v>46</v>
       </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1031,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="G24" t="s">
         <v>49</v>
       </c>
@@ -1453,6 +1465,11 @@
       </c>
       <c r="F48" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/0緣起.xlsx
+++ b/Assets/Resources/Data/0緣起.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark8\whogoopo\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="4764" windowWidth="23064" windowHeight="4812"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,25 +24,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="80">
+  <si>
+    <t>對話方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色佔位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>表情差分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>對話方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
+    <t>6.背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{CreateBackground}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>距今百年以前，人族與妖族彼此畏懼，在恐怖的平衡之下，保持互不侵犯的生活。</t>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>但時代變遷，人類社會快速工業化，擁有強大的武器與無孔不入的科技，逐漸將妖族的生活地域消滅殆盡。</t>
@@ -71,13 +95,41 @@
     </r>
   </si>
   <si>
+    <t>紅樹林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>台南，紅樹林保護區。</t>
   </si>
   <si>
+    <t>對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「這是怎麼回事！是誰傷了你們！」</t>
   </si>
   <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>幾名妖族滿身是傷的回到聚居地，幾名同伴見狀義憤填膺，疾聲詢問。</t>
+  </si>
+  <si>
+    <t>小妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -104,6 +156,18 @@
     </r>
   </si>
   <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>「推土機一路挖過去，我們根本連躲藏的地方都沒有</t>
     </r>
@@ -128,13 +192,49 @@
     </r>
   </si>
   <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「可惡，我找他們算帳去！」</t>
   </si>
   <si>
+    <t>晴光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「慢著！」</t>
   </si>
   <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>妖族長老正好從外面回來，擋住了去路。</t>
+  </si>
+  <si>
+    <t>長老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -161,6 +261,14 @@
     </r>
   </si>
   <si>
+    <t>{CreateBackground}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破壞CG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>妖族長老拿出了一疊檔案，發現當地政府決定瞞天過海，強行通過環境評估審查，將此地開發成重型石化工業區。</t>
   </si>
   <si>
@@ -173,10 +281,22 @@
     <t>如果這件事情成為定局，不僅躲藏的妖族將失去棲身之所，當地的生態也將全數滅絕。</t>
   </si>
   <si>
+    <t>紅樹林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「又要找新家了嗎？我明明很喜歡這裡的說。」</t>
   </si>
   <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「唉，台南經過這些年的開發，大多地方都已經都市化了，我們已經無處可去了。」</t>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -203,9 +323,21 @@
     </r>
   </si>
   <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「休想！我讓他們來一個死一個、來兩個死一雙，看誰還敢來。」</t>
   </si>
   <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「這才是最麻煩的地方，你看看這裡。」</t>
   </si>
   <si>
@@ -218,10 +350,18 @@
     <t>「我活了兩百多年，一般小神明我還不看在眼裡。」</t>
   </si>
   <si>
+    <t>晴光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「從靈力殘留的量、以及工程的規模看，恐怕是中央派來的『部長級』人物，妳絕非他的對手。」</t>
   </si>
   <si>
     <t>「那怎麼辦？連打都不打就要逃嗎？」</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「我東躲西藏這麼多年，現在連這裡也要被奪走，實在忍不下去了！」</t>
@@ -279,82 +419,6 @@
       </rPr>
       <t>」</t>
     </r>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>對話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旁白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅樹林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破壞CG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色佔位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{CreateBackground}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{EndDialouge}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -420,21 +484,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +531,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -482,7 +543,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -496,7 +557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -529,26 +590,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -581,23 +625,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,39 +777,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="123.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="H1">
         <v>7</v>
@@ -795,686 +818,680 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
-        <v>55</v>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
-        <v>55</v>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
-        <v>55</v>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>55</v>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
         <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>